--- a/Users.xlsx
+++ b/Users.xlsx
@@ -21,15 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivatedTariff</t>
+  </si>
   <si>
     <t xml:space="preserve">Sanjar</t>
   </si>
   <si>
     <t xml:space="preserve">Login123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
   </si>
   <si>
     <t xml:space="preserve">Dastan</t>
@@ -117,8 +129,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,15 +155,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A2:C2 D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -157,15 +173,32 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -185,26 +218,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -10,8 +10,9 @@
   <sheets>
     <sheet name="Employees" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Clients" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Requests" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -38,40 +42,19 @@
     <t xml:space="preserve">ActivatedTariff</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanjar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dastan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelya123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACER2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584721</t>
+    <t xml:space="preserve">PreviousTariff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDTariff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
 </sst>
 </file>
@@ -83,9 +66,8 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -173,19 +155,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -201,36 +179,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>654321</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -240,19 +199,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -268,56 +223,78 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>852741</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>200</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t xml:space="preserve">YAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAM</t>
   </si>
   <si>
     <t xml:space="preserve">IDClient</t>
@@ -161,7 +170,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -199,13 +208,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -250,6 +259,52 @@
         <v>101</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>555</v>
       </c>
     </row>
@@ -275,17 +330,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Employees" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Clients" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Requests" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,11 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -36,6 +38,18 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balance</t>
   </si>
   <si>
@@ -45,25 +59,13 @@
     <t xml:space="preserve">PreviousTariff</t>
   </si>
   <si>
-    <t xml:space="preserve">YAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDClient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDTariff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
+    <t xml:space="preserve">ASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMW</t>
   </si>
 </sst>
 </file>
@@ -164,13 +166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -188,8 +190,39 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -211,46 +244,46 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>100</v>
@@ -264,16 +297,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>100</v>
@@ -287,16 +320,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>100</v>
@@ -306,41 +339,6 @@
       </c>
       <c r="G4" s="0" t="n">
         <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,28 +26,28 @@
     <t xml:space="preserve">Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
     <t xml:space="preserve">Position</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
+    <t xml:space="preserve">ACER</t>
   </si>
   <si>
     <t xml:space="preserve">Director</t>
   </si>
   <si>
-    <t xml:space="preserve">ACER</t>
+    <t xml:space="preserve">SAMSUNG</t>
   </si>
   <si>
     <t xml:space="preserve">Employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG</t>
   </si>
   <si>
     <t xml:space="preserve">Balance</t>
@@ -168,8 +168,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -199,10 +199,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>6</v>
@@ -216,10 +216,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
@@ -243,8 +243,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,13 +254,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Clients" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Clients" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Employees" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -21,7 +21,6 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -448,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -479,7 +478,27 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>ActivatedTariff</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>PreviousTariff</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>City</t>
         </is>
       </c>
     </row>
@@ -489,72 +508,34 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Dir123</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Ctor321</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Bishkek</t>
         </is>
       </c>
     </row>
@@ -579,13 +560,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -610,27 +591,7 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Balance</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>ActivatedTariff</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>PreviousTariff</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>City</t>
+          <t>Position</t>
         </is>
       </c>
     </row>
@@ -640,108 +601,22 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Dir123</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>700</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>555</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Bishkek</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>BENZ</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>BENZ</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>555</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Osh</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>555</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Sokuluk</t>
+          <t>Ctor321</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Director</t>
         </is>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -447,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -536,6 +537,351 @@
       <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Bishkek</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>ACER</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>ACER</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>ACER</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Bishkek</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Bishkek</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Osh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>YAS</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>YAS</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YAS</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Bishkek</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>LERA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>LERA</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>LERA</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>330</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>555</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Cille</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Cille</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Cille</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Kai</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Kai</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Kai</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Gerund</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Gerund</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Gerund</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>VALERA</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>VALERA</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>VALERA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>LER</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>CANON</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>CANON</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>CANON</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>KODAK</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>KODAK</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>KODAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SOS</t>
         </is>
       </c>
     </row>
@@ -560,13 +906,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -617,6 +963,76 @@
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Director</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Azamat</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Azamat</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Azamat</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Vice</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Dastan</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Dastan</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Dastan</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>DAD</t>
         </is>
       </c>
     </row>
